--- a/Preparation and planning/Route sheet.xlsx
+++ b/Preparation and planning/Route sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Work done</t>
   </si>
@@ -71,11 +71,25 @@
 ! Write some rough notes
 ! Google calendar for TMA01</t>
   </si>
+  <si>
+    <t>Can I merge these two disciplines?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>.User-Centered Design, Travis Lowedermink</t>
+  </si>
+  <si>
+    <t>! Collect a few more litearature resources
+!Narrow down project scope to iterative software development based on Human-Centered Design
+! First Draft version of 3.1.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,16 +176,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" name="Work done" dataDxfId="7"/>
-    <tableColumn id="3" name="Ideas to think about" dataDxfId="6"/>
-    <tableColumn id="4" name="Obstacles" dataDxfId="5"/>
-    <tableColumn id="5" name="Questions for Richard" dataDxfId="4"/>
-    <tableColumn id="6" name="Entry in journal?" dataDxfId="3"/>
-    <tableColumn id="7" name="New files created?" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Work done" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ideas to think about" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Obstacles" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Questions for Richard" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Entry in journal?" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="New files created?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -473,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +549,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
